--- a/server/excel/templates/Chave Posição Escotilha.xlsx
+++ b/server/excel/templates/Chave Posição Escotilha.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugol\OneDrive\Documentos\GitHub\-Lista-de-Itens-para-Folha-de-dados\server\excel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae86ac8ea500c045/Documentos/GitHub/-Lista-de-Itens-para-Folha-de-dados/server/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC431F-5019-4E4D-8C51-47C068A04A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{96BC431F-5019-4E4D-8C51-47C068A04A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D3E432A-F20A-458D-BDA4-F95105E74FAF}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,22 +1345,190 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1381,21 +1549,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1414,158 +1567,320 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1588,27 +1903,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1621,311 +1918,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2508,393 +2508,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="28" t="s">
+      <c r="A1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="30" t="s">
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="86" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="17"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
     </row>
     <row r="2" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="31"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="36" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39">
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="90">
         <v>1</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="43">
+      <c r="O3" s="94">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="44"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="95"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="36" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="36" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="35"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="36" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="64"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="66"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="69"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="76"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="79"/>
     </row>
     <row r="14" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="78"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="81"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="33"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="47"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="33"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="47"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="33"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="33"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="33"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="33"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="89"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="41"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -3033,140 +3033,140 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="81"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="27"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="81"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="27"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="81"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="27"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="81"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="27"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="81"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="81"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="81"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="27"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="81"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="27"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -3203,540 +3203,540 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="84"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="36"/>
     </row>
     <row r="41" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="85"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="86"/>
-      <c r="O41" s="87"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="39"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="81"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="27"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="81"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="27"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="81"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="27"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="81"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="27"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="81"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="27"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="81"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="27"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="79"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="81"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="27"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="81"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="27"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="81"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="27"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="81"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="27"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="81"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="27"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="81"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="27"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="81"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="27"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="79"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="81"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="27"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="81"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="27"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="79"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="81"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="27"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="79"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="81"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="27"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="79"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="80"/>
-      <c r="O59" s="81"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="27"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="79"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="81"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="27"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="79"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="81"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="27"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="79"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="80"/>
-      <c r="N62" s="80"/>
-      <c r="O62" s="81"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="27"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="79"/>
-      <c r="B63" s="80"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="80"/>
-      <c r="L63" s="80"/>
-      <c r="M63" s="80"/>
-      <c r="N63" s="80"/>
-      <c r="O63" s="81"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="27"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="79"/>
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="80"/>
-      <c r="N64" s="80"/>
-      <c r="O64" s="81"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="27"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="79"/>
-      <c r="B65" s="80"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="80"/>
-      <c r="N65" s="80"/>
-      <c r="O65" s="81"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="27"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="79"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="80"/>
-      <c r="N66" s="80"/>
-      <c r="O66" s="81"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="27"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="79"/>
-      <c r="B67" s="80"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="80"/>
-      <c r="M67" s="80"/>
-      <c r="N67" s="80"/>
-      <c r="O67" s="81"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="27"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="79"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
-      <c r="M68" s="80"/>
-      <c r="N68" s="80"/>
-      <c r="O68" s="81"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="27"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="79"/>
-      <c r="B69" s="80"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="80"/>
-      <c r="M69" s="80"/>
-      <c r="N69" s="80"/>
-      <c r="O69" s="81"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="27"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="79"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="80"/>
-      <c r="J70" s="80"/>
-      <c r="K70" s="80"/>
-      <c r="L70" s="80"/>
-      <c r="M70" s="80"/>
-      <c r="N70" s="80"/>
-      <c r="O70" s="81"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="27"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="93" t="s">
+      <c r="A71" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="94"/>
-      <c r="C71" s="95"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="4">
         <v>0</v>
       </c>
@@ -3775,11 +3775,11 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="93" t="s">
+      <c r="A72" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="94"/>
-      <c r="C72" s="95"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="21"/>
@@ -3794,11 +3794,11 @@
       <c r="O72" s="6"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="93" t="s">
+      <c r="A73" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="94"/>
-      <c r="C73" s="95"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="30"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -3813,11 +3813,11 @@
       <c r="O73" s="8"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="93" t="s">
+      <c r="A74" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="94"/>
-      <c r="C74" s="95"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -3832,11 +3832,11 @@
       <c r="O74" s="8"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="93" t="s">
+      <c r="A75" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="94"/>
-      <c r="C75" s="95"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="30"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -3851,11 +3851,11 @@
       <c r="O75" s="8"/>
     </row>
     <row r="76" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="91"/>
-      <c r="C76" s="92"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -3871,44 +3871,15 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:O66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:O68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:O70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:O60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:O62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:O64"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:O45"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="B46:O56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:O58"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:O43"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:O20"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:O31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:O33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:O35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:O37"/>
-    <mergeCell ref="A40:O41"/>
-    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:O18"/>
     <mergeCell ref="A5:C8"/>
@@ -3924,15 +3895,44 @@
     <mergeCell ref="B13:O14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:O16"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:O43"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:O20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:O31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:O33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:O35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:O37"/>
+    <mergeCell ref="A40:O41"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:O45"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="B46:O56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:O58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:O60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:O62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:O64"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:O66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:O68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:O70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
@@ -3950,8 +3950,8 @@
   </sheetPr>
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3963,54 +3963,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="195"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="202" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="204"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="107"/>
       <c r="K1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="205"/>
-      <c r="P1" s="205"/>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="206"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
       <c r="S1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="205"/>
-      <c r="U1" s="207"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="110"/>
     </row>
     <row r="2" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="197"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="199"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="209"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="112"/>
       <c r="R2" s="13" t="s">
         <v>23</v>
       </c>
@@ -4025,262 +4025,262 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="197"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="210" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="211"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="212"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="115"/>
     </row>
     <row r="4" spans="1:21" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="200"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="214"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="214"/>
-      <c r="S4" s="214"/>
-      <c r="T4" s="214"/>
-      <c r="U4" s="215"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="118"/>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="182"/>
-      <c r="U5" s="183"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="125"/>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="186"/>
-      <c r="S6" s="186"/>
-      <c r="T6" s="186"/>
-      <c r="U6" s="187"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="214"/>
+      <c r="N6" s="214"/>
+      <c r="O6" s="214"/>
+      <c r="P6" s="214"/>
+      <c r="Q6" s="214"/>
+      <c r="R6" s="214"/>
+      <c r="S6" s="214"/>
+      <c r="T6" s="214"/>
+      <c r="U6" s="215"/>
     </row>
     <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="193"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="193"/>
-      <c r="S7" s="193"/>
-      <c r="T7" s="193"/>
-      <c r="U7" s="194"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="134"/>
     </row>
     <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="104"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="142"/>
     </row>
     <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="169" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="109"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="148"/>
     </row>
     <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="164"/>
-      <c r="B10" s="169" t="s">
+      <c r="A10" s="137"/>
+      <c r="B10" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="109"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="148"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="165"/>
-      <c r="B11" s="170" t="s">
+      <c r="A11" s="138"/>
+      <c r="B11" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="109"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="148"/>
     </row>
     <row r="12" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="165"/>
-      <c r="B12" s="173" t="s">
+      <c r="A12" s="138"/>
+      <c r="B12" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="175"/>
-      <c r="M12" s="175"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="175"/>
-      <c r="Q12" s="175"/>
-      <c r="R12" s="175"/>
-      <c r="S12" s="175"/>
-      <c r="T12" s="175"/>
-      <c r="U12" s="176"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="157"/>
+      <c r="S12" s="157"/>
+      <c r="T12" s="157"/>
+      <c r="U12" s="158"/>
     </row>
     <row r="13" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="165"/>
-      <c r="B13" s="157" t="s">
+      <c r="A13" s="138"/>
+      <c r="B13" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
       <c r="E13" s="160"/>
       <c r="F13" s="160"/>
       <c r="G13" s="160"/>
@@ -4300,12 +4300,12 @@
       <c r="U13" s="161"/>
     </row>
     <row r="14" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="165"/>
-      <c r="B14" s="157" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="159"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
       <c r="E14" s="160"/>
       <c r="F14" s="160"/>
       <c r="G14" s="160"/>
@@ -4325,12 +4325,12 @@
       <c r="U14" s="161"/>
     </row>
     <row r="15" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
-      <c r="B15" s="157" t="s">
+      <c r="A15" s="138"/>
+      <c r="B15" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155"/>
       <c r="E15" s="160"/>
       <c r="F15" s="160"/>
       <c r="G15" s="160"/>
@@ -4350,390 +4350,412 @@
       <c r="U15" s="161"/>
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="177" t="s">
+      <c r="A16" s="138"/>
+      <c r="B16" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="149"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="150"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="164"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="164"/>
+      <c r="U16" s="165"/>
     </row>
     <row r="17" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="166"/>
-      <c r="B17" s="151" t="s">
+      <c r="A17" s="139"/>
+      <c r="B17" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="155"/>
-      <c r="P17" s="155"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="155"/>
-      <c r="S17" s="155"/>
-      <c r="T17" s="155"/>
-      <c r="U17" s="156"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="170"/>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="170"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="170"/>
+      <c r="U17" s="171"/>
     </row>
     <row r="18" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="140"/>
-      <c r="S18" s="140"/>
-      <c r="T18" s="140"/>
-      <c r="U18" s="141"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="178"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="178"/>
+      <c r="O18" s="178"/>
+      <c r="P18" s="178"/>
+      <c r="Q18" s="178"/>
+      <c r="R18" s="178"/>
+      <c r="S18" s="178"/>
+      <c r="T18" s="178"/>
+      <c r="U18" s="179"/>
     </row>
     <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="122" t="s">
+      <c r="A19" s="173"/>
+      <c r="B19" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="123"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="126"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="181"/>
+      <c r="S19" s="181"/>
+      <c r="T19" s="181"/>
+      <c r="U19" s="182"/>
     </row>
     <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="122" t="s">
+      <c r="A20" s="173"/>
+      <c r="B20" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="126"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="181"/>
+      <c r="S20" s="181"/>
+      <c r="T20" s="181"/>
+      <c r="U20" s="182"/>
     </row>
     <row r="21" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="136"/>
-      <c r="B21" s="143" t="s">
+      <c r="A21" s="174"/>
+      <c r="B21" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="146"/>
-      <c r="S21" s="146"/>
-      <c r="T21" s="146"/>
-      <c r="U21" s="147"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="186"/>
+      <c r="L21" s="186"/>
+      <c r="M21" s="186"/>
+      <c r="N21" s="186"/>
+      <c r="O21" s="186"/>
+      <c r="P21" s="186"/>
+      <c r="Q21" s="186"/>
+      <c r="R21" s="186"/>
+      <c r="S21" s="186"/>
+      <c r="T21" s="186"/>
+      <c r="U21" s="187"/>
     </row>
     <row r="22" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120"/>
-      <c r="U22" s="121"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="190"/>
+      <c r="L22" s="190"/>
+      <c r="M22" s="190"/>
+      <c r="N22" s="190"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="190"/>
+      <c r="Q22" s="190"/>
+      <c r="R22" s="190"/>
+      <c r="S22" s="190"/>
+      <c r="T22" s="190"/>
+      <c r="U22" s="191"/>
     </row>
     <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="122" t="s">
+      <c r="A23" s="173"/>
+      <c r="B23" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="126"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181"/>
+      <c r="T23" s="181"/>
+      <c r="U23" s="182"/>
     </row>
     <row r="24" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="127" t="s">
+      <c r="A24" s="173"/>
+      <c r="B24" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="126"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="181"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="181"/>
+      <c r="U24" s="182"/>
     </row>
     <row r="25" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="127" t="s">
+      <c r="A25" s="173"/>
+      <c r="B25" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="126"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="181"/>
+      <c r="S25" s="181"/>
+      <c r="T25" s="181"/>
+      <c r="U25" s="182"/>
     </row>
     <row r="26" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="116"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="133"/>
-      <c r="S26" s="133"/>
-      <c r="T26" s="133"/>
-      <c r="U26" s="134"/>
+      <c r="A26" s="173"/>
+      <c r="B26" s="196"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="198"/>
+      <c r="G26" s="198"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="199"/>
+      <c r="L26" s="199"/>
+      <c r="M26" s="199"/>
+      <c r="N26" s="199"/>
+      <c r="O26" s="199"/>
+      <c r="P26" s="199"/>
+      <c r="Q26" s="199"/>
+      <c r="R26" s="199"/>
+      <c r="S26" s="199"/>
+      <c r="T26" s="199"/>
+      <c r="U26" s="200"/>
     </row>
     <row r="27" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="104"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="142"/>
     </row>
     <row r="28" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="109"/>
+      <c r="A28" s="202"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="147"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="148"/>
     </row>
     <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="109"/>
+      <c r="A29" s="202"/>
+      <c r="B29" s="208"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="147"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="147"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="148"/>
     </row>
     <row r="30" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="115"/>
+      <c r="A30" s="203"/>
+      <c r="B30" s="209"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="D3:U4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:U5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:U6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:U7"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:U27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:U28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:U29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:U30"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:U22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:U23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:U24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:U25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:U26"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:U18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:U19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:U20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:U21"/>
+    <mergeCell ref="D16:U16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:U17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:U15"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:U8"/>
@@ -4750,40 +4772,18 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:U14"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:U16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:U17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:U15"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:U18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:U19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:U20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:U21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:U22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:U23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:U24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:U25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:U26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:U27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:U28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:U29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:U30"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:U5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:U6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:U7"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="D3:U4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4803,6 +4803,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="09800482-4cb0-41a3-85e1-23f7b0b2224e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4d7e4c3-b78f-4756-8feb-bf68a8958333">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010009C6D626C8523A42B259EE5D5B1F253C" ma:contentTypeVersion="18" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="eea2274a23792c3eba8bc3d2a01aaaf5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4d7e4c3-b78f-4756-8feb-bf68a8958333" xmlns:ns3="09800482-4cb0-41a3-85e1-23f7b0b2224e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67581f3b53955eacb98a37a3c22db38b" ns2:_="" ns3:_="">
     <xsd:import namespace="e4d7e4c3-b78f-4756-8feb-bf68a8958333"/>
@@ -5057,17 +5068,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="09800482-4cb0-41a3-85e1-23f7b0b2224e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4d7e4c3-b78f-4756-8feb-bf68a8958333">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A2920B-9B45-410D-9F50-057B8C7FB9C2}">
   <ds:schemaRefs>
@@ -5077,6 +5077,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD787DA-03FA-4855-9BA5-0C7681A48858}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="09800482-4cb0-41a3-85e1-23f7b0b2224e"/>
+    <ds:schemaRef ds:uri="e4d7e4c3-b78f-4756-8feb-bf68a8958333"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D546BB4B-62ED-49E6-B25B-6DA0255B1DEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5093,21 +5110,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD787DA-03FA-4855-9BA5-0C7681A48858}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="09800482-4cb0-41a3-85e1-23f7b0b2224e"/>
-    <ds:schemaRef ds:uri="e4d7e4c3-b78f-4756-8feb-bf68a8958333"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/server/excel/templates/Chave Posição Escotilha.xlsx
+++ b/server/excel/templates/Chave Posição Escotilha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae86ac8ea500c045/Documentos/GitHub/-Lista-de-Itens-para-Folha-de-dados/server/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{96BC431F-5019-4E4D-8C51-47C068A04A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D3E432A-F20A-458D-BDA4-F95105E74FAF}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{96BC431F-5019-4E4D-8C51-47C068A04A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12AF76B1-FF19-43DD-8430-767C9BC7DACF}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="2" r:id="rId1"/>
@@ -429,18 +429,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="69">
@@ -1345,6 +1339,210 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1354,15 +1552,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1372,207 +1561,300 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1588,9 +1870,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1636,295 +1915,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2101,6 +2095,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2508,393 +2506,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="86" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="17"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="87"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="51" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="90">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39">
         <v>1</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="N3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="94">
+      <c r="O3" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="95"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="44"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="51" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="51" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="53"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="58"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="51" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="67"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
     </row>
     <row r="10" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="69"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="66"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="72"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="75"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="72"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="79"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="76"/>
     </row>
     <row r="14" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="81"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="78"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="33"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="33"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="33"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="33"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="47"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="47"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="33"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="47"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="41"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="89"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -3033,140 +3031,140 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="81"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="27"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="81"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="27"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="81"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="27"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="81"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="27"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="81"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="27"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="81"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="27"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="81"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="27"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="81"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -3203,540 +3201,540 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="36"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="84"/>
     </row>
     <row r="41" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="39"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="87"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="27"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="81"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="27"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="81"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="27"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="81"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="27"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="81"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="27"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="81"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="27"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="81"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="27"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="80"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="81"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="27"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="81"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="27"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="81"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="27"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="81"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="27"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="80"/>
+      <c r="O52" s="81"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="27"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="81"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="27"/>
+      <c r="A54" s="79"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="81"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="27"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="81"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="27"/>
+      <c r="A56" s="79"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="80"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="81"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="27"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="81"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="27"/>
+      <c r="A58" s="79"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="81"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="27"/>
+      <c r="A59" s="79"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="81"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="27"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="81"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="27"/>
+      <c r="A61" s="79"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="81"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="27"/>
+      <c r="A62" s="79"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="80"/>
+      <c r="J62" s="80"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="80"/>
+      <c r="M62" s="80"/>
+      <c r="N62" s="80"/>
+      <c r="O62" s="81"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="27"/>
+      <c r="A63" s="79"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="80"/>
+      <c r="M63" s="80"/>
+      <c r="N63" s="80"/>
+      <c r="O63" s="81"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="27"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="80"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="80"/>
+      <c r="I64" s="80"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="80"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="80"/>
+      <c r="O64" s="81"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="27"/>
+      <c r="A65" s="79"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="81"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="27"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="80"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="81"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="27"/>
+      <c r="A67" s="79"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="81"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="27"/>
+      <c r="A68" s="79"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
+      <c r="I68" s="80"/>
+      <c r="J68" s="80"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="80"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="81"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="27"/>
+      <c r="A69" s="79"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="80"/>
+      <c r="M69" s="80"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="81"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="27"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="80"/>
+      <c r="I70" s="80"/>
+      <c r="J70" s="80"/>
+      <c r="K70" s="80"/>
+      <c r="L70" s="80"/>
+      <c r="M70" s="80"/>
+      <c r="N70" s="80"/>
+      <c r="O70" s="81"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="95"/>
       <c r="D71" s="4">
         <v>0</v>
       </c>
@@ -3775,11 +3773,11 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="30"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="95"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="21"/>
@@ -3794,11 +3792,11 @@
       <c r="O72" s="6"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="30"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="95"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -3813,11 +3811,11 @@
       <c r="O73" s="8"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="30"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="95"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -3832,11 +3830,11 @@
       <c r="O74" s="8"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="95"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -3851,11 +3849,11 @@
       <c r="O75" s="8"/>
     </row>
     <row r="76" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="24"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="92"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -3871,15 +3869,44 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:O66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:O68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:O70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:O60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:O62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:O64"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:O45"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="B46:O56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:O58"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:O43"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:O20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:O31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:O33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:O35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:O37"/>
+    <mergeCell ref="A40:O41"/>
+    <mergeCell ref="B21:O21"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:O18"/>
     <mergeCell ref="A5:C8"/>
@@ -3895,44 +3922,15 @@
     <mergeCell ref="B13:O14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:O16"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:O43"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:O20"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:O31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:O33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:O35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:O37"/>
-    <mergeCell ref="A40:O41"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:O45"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="B46:O56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:O58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:O60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:O62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:O64"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:O66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:O68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:O70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
@@ -3950,8 +3948,8 @@
   </sheetPr>
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:U23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3963,54 +3961,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="105" t="s">
+      <c r="A1" s="193"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="107"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="202"/>
       <c r="K1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="204"/>
       <c r="S1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="108"/>
-      <c r="U1" s="110"/>
+      <c r="T1" s="203"/>
+      <c r="U1" s="205"/>
     </row>
     <row r="2" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="101"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="197"/>
       <c r="D2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="112"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="207"/>
       <c r="R2" s="13" t="s">
         <v>23</v>
       </c>
@@ -4025,84 +4023,84 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="113" t="s">
+      <c r="A3" s="195"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="115"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="210"/>
     </row>
     <row r="4" spans="1:21" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="118"/>
+      <c r="A4" s="198"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="212"/>
+      <c r="S4" s="212"/>
+      <c r="T4" s="212"/>
+      <c r="U4" s="213"/>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="125"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="183"/>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="185"/>
       <c r="D6" s="214"/>
       <c r="E6" s="214"/>
       <c r="F6" s="214"/>
@@ -4123,164 +4121,164 @@
       <c r="U6" s="215"/>
     </row>
     <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="134"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="191"/>
+      <c r="R7" s="191"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="191"/>
+      <c r="U7" s="192"/>
     </row>
     <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="97"/>
-      <c r="U8" s="142"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="104"/>
     </row>
     <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="143" t="s">
+      <c r="A9" s="163"/>
+      <c r="B9" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="148"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="109"/>
     </row>
     <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="137"/>
-      <c r="B10" s="143" t="s">
+      <c r="A10" s="164"/>
+      <c r="B10" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="148"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="109"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
-      <c r="B11" s="149" t="s">
+      <c r="A11" s="165"/>
+      <c r="B11" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="150"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="148"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="109"/>
     </row>
     <row r="12" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
-      <c r="B12" s="153" t="s">
+      <c r="A12" s="165"/>
+      <c r="B12" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="157"/>
-      <c r="S12" s="157"/>
-      <c r="T12" s="157"/>
-      <c r="U12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="175"/>
+      <c r="Q12" s="175"/>
+      <c r="R12" s="175"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="175"/>
+      <c r="U12" s="176"/>
     </row>
     <row r="13" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="159" t="s">
+      <c r="A13" s="165"/>
+      <c r="B13" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="160"/>
       <c r="F13" s="160"/>
       <c r="G13" s="160"/>
@@ -4300,12 +4298,12 @@
       <c r="U13" s="161"/>
     </row>
     <row r="14" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
-      <c r="B14" s="159" t="s">
+      <c r="A14" s="165"/>
+      <c r="B14" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="160"/>
       <c r="F14" s="160"/>
       <c r="G14" s="160"/>
@@ -4325,12 +4323,12 @@
       <c r="U14" s="161"/>
     </row>
     <row r="15" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="138"/>
-      <c r="B15" s="159" t="s">
+      <c r="A15" s="165"/>
+      <c r="B15" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="160"/>
       <c r="F15" s="160"/>
       <c r="G15" s="160"/>
@@ -4350,412 +4348,390 @@
       <c r="U15" s="161"/>
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
-      <c r="B16" s="162" t="s">
+      <c r="A16" s="165"/>
+      <c r="B16" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="150"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="164"/>
-      <c r="U16" s="165"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="150"/>
     </row>
     <row r="17" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="139"/>
-      <c r="B17" s="166" t="s">
+      <c r="A17" s="166"/>
+      <c r="B17" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="170"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="171"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="155"/>
+      <c r="O17" s="155"/>
+      <c r="P17" s="155"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="155"/>
+      <c r="T17" s="155"/>
+      <c r="U17" s="156"/>
     </row>
     <row r="18" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="172" t="s">
+      <c r="A18" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="176"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="178"/>
-      <c r="O18" s="178"/>
-      <c r="P18" s="178"/>
-      <c r="Q18" s="178"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="178"/>
-      <c r="T18" s="178"/>
-      <c r="U18" s="179"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="140"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="141"/>
     </row>
     <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
-      <c r="B19" s="150" t="s">
+      <c r="A19" s="116"/>
+      <c r="B19" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="144"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="181"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="181"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="181"/>
-      <c r="R19" s="181"/>
-      <c r="S19" s="181"/>
-      <c r="T19" s="181"/>
-      <c r="U19" s="182"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="126"/>
     </row>
     <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="173"/>
-      <c r="B20" s="150" t="s">
+      <c r="A20" s="116"/>
+      <c r="B20" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="181"/>
-      <c r="R20" s="181"/>
-      <c r="S20" s="181"/>
-      <c r="T20" s="181"/>
-      <c r="U20" s="182"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="126"/>
     </row>
     <row r="21" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
-      <c r="B21" s="183" t="s">
+      <c r="A21" s="136"/>
+      <c r="B21" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="184"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="186"/>
-      <c r="L21" s="186"/>
-      <c r="M21" s="186"/>
-      <c r="N21" s="186"/>
-      <c r="O21" s="186"/>
-      <c r="P21" s="186"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="186"/>
-      <c r="S21" s="186"/>
-      <c r="T21" s="186"/>
-      <c r="U21" s="187"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="146"/>
+      <c r="S21" s="146"/>
+      <c r="T21" s="146"/>
+      <c r="U21" s="147"/>
     </row>
     <row r="22" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="173" t="s">
+      <c r="A22" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="188"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="190"/>
-      <c r="O22" s="190"/>
-      <c r="P22" s="190"/>
-      <c r="Q22" s="190"/>
-      <c r="R22" s="190"/>
-      <c r="S22" s="190"/>
-      <c r="T22" s="190"/>
-      <c r="U22" s="191"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="121"/>
     </row>
     <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="173"/>
-      <c r="B23" s="150" t="s">
+      <c r="A23" s="116"/>
+      <c r="B23" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="181"/>
-      <c r="S23" s="181"/>
-      <c r="T23" s="181"/>
-      <c r="U23" s="182"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="126"/>
     </row>
     <row r="24" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="173"/>
-      <c r="B24" s="193" t="s">
+      <c r="A24" s="116"/>
+      <c r="B24" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="181"/>
-      <c r="O24" s="181"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="181"/>
-      <c r="R24" s="181"/>
-      <c r="S24" s="181"/>
-      <c r="T24" s="181"/>
-      <c r="U24" s="182"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="126"/>
     </row>
     <row r="25" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="173"/>
-      <c r="B25" s="193" t="s">
+      <c r="A25" s="116"/>
+      <c r="B25" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="144"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="181"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="181"/>
-      <c r="O25" s="181"/>
-      <c r="P25" s="181"/>
-      <c r="Q25" s="181"/>
-      <c r="R25" s="181"/>
-      <c r="S25" s="181"/>
-      <c r="T25" s="181"/>
-      <c r="U25" s="182"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="126"/>
     </row>
     <row r="26" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="173"/>
-      <c r="B26" s="196"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="198"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="198"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="199"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="199"/>
-      <c r="N26" s="199"/>
-      <c r="O26" s="199"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="199"/>
-      <c r="S26" s="199"/>
-      <c r="T26" s="199"/>
-      <c r="U26" s="200"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="133"/>
+      <c r="S26" s="133"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="134"/>
     </row>
     <row r="27" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="201" t="s">
+      <c r="A27" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="204"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="142"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="104"/>
     </row>
     <row r="28" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="202"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="147"/>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="148"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="109"/>
     </row>
     <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="202"/>
-      <c r="B29" s="208"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="148"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="109"/>
     </row>
     <row r="30" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="203"/>
-      <c r="B30" s="209"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="211"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="213"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="114"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:U27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:U28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:U29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:U30"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:U22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:U23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:U24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:U25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:U26"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:U18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:U19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:U20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:U21"/>
-    <mergeCell ref="D16:U16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:U17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:U15"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="D3:U4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:U5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:U6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:U7"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:U8"/>
@@ -4772,18 +4748,40 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:U14"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:U5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:U6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:U7"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="D3:U4"/>
+    <mergeCell ref="D16:U16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:U17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:U15"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:U18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:U19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:U20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:U21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:U22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:U23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:U24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:U25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:U26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:U27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:U28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:U29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:U30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4803,17 +4801,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="09800482-4cb0-41a3-85e1-23f7b0b2224e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4d7e4c3-b78f-4756-8feb-bf68a8958333">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010009C6D626C8523A42B259EE5D5B1F253C" ma:contentTypeVersion="18" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="eea2274a23792c3eba8bc3d2a01aaaf5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4d7e4c3-b78f-4756-8feb-bf68a8958333" xmlns:ns3="09800482-4cb0-41a3-85e1-23f7b0b2224e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67581f3b53955eacb98a37a3c22db38b" ns2:_="" ns3:_="">
     <xsd:import namespace="e4d7e4c3-b78f-4756-8feb-bf68a8958333"/>
@@ -5068,6 +5055,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="09800482-4cb0-41a3-85e1-23f7b0b2224e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4d7e4c3-b78f-4756-8feb-bf68a8958333">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A2920B-9B45-410D-9F50-057B8C7FB9C2}">
   <ds:schemaRefs>
@@ -5077,23 +5075,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD787DA-03FA-4855-9BA5-0C7681A48858}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="09800482-4cb0-41a3-85e1-23f7b0b2224e"/>
-    <ds:schemaRef ds:uri="e4d7e4c3-b78f-4756-8feb-bf68a8958333"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D546BB4B-62ED-49E6-B25B-6DA0255B1DEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5110,4 +5091,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD787DA-03FA-4855-9BA5-0C7681A48858}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="09800482-4cb0-41a3-85e1-23f7b0b2224e"/>
+    <ds:schemaRef ds:uri="e4d7e4c3-b78f-4756-8feb-bf68a8958333"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>